--- a/relatorios/relatorio.xlsx
+++ b/relatorios/relatorio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08654ef913002637/Área de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F4F411D-5B42-4B81-AC06-1AA1A655FBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{7F4F411D-5B42-4B81-AC06-1AA1A655FBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FF0B7A1-C68F-4391-960A-EF3016B892A4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AAC24617-6F5B-473A-B60A-C932709466B7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>MOTORISTA</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>KLM8901</t>
+  </si>
+  <si>
+    <t>Email Fornecedor</t>
+  </si>
+  <si>
+    <t>fornecedor.transfrote@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -130,11 +136,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -161,10 +174,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -180,6 +194,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -479,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BEC9309-A466-4CC4-9BFF-447067249857}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C11"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,9 +513,10 @@
     <col min="6" max="6" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,8 +541,11 @@
       <c r="H1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -540,7 +562,7 @@
         <v>12345678909</v>
       </c>
       <c r="F2" s="1">
-        <v>45200</v>
+        <v>45148</v>
       </c>
       <c r="G2" s="2">
         <v>0.41666666666666669</v>
@@ -548,8 +570,11 @@
       <c r="H2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -566,7 +591,7 @@
         <v>23456789012</v>
       </c>
       <c r="F3" s="1">
-        <v>45202</v>
+        <v>45153</v>
       </c>
       <c r="G3" s="2">
         <v>0.64583333333333337</v>
@@ -574,8 +599,11 @@
       <c r="H3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -592,7 +620,7 @@
         <v>34567890123</v>
       </c>
       <c r="F4" s="1">
-        <v>45204</v>
+        <v>45158</v>
       </c>
       <c r="G4" s="2">
         <v>0.36458333333333331</v>
@@ -600,8 +628,11 @@
       <c r="H4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -618,7 +649,7 @@
         <v>45678901234</v>
       </c>
       <c r="F5" s="1">
-        <v>45206</v>
+        <v>45163</v>
       </c>
       <c r="G5" s="2">
         <v>0.59375</v>
@@ -626,8 +657,11 @@
       <c r="H5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -644,7 +678,7 @@
         <v>56789012345</v>
       </c>
       <c r="F6" s="1">
-        <v>45208</v>
+        <v>45171</v>
       </c>
       <c r="G6" s="2">
         <v>0.72222222222222221</v>
@@ -652,8 +686,11 @@
       <c r="H6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -670,7 +707,7 @@
         <v>67890123456</v>
       </c>
       <c r="F7" s="1">
-        <v>45210</v>
+        <v>45177</v>
       </c>
       <c r="G7" s="2">
         <v>0.48958333333333331</v>
@@ -678,8 +715,11 @@
       <c r="H7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -696,7 +736,7 @@
         <v>78901234567</v>
       </c>
       <c r="F8" s="1">
-        <v>45212</v>
+        <v>45180</v>
       </c>
       <c r="G8" s="2">
         <v>0.67361111111111116</v>
@@ -704,8 +744,11 @@
       <c r="H8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -722,7 +765,7 @@
         <v>89012345678</v>
       </c>
       <c r="F9" s="1">
-        <v>45214</v>
+        <v>45185</v>
       </c>
       <c r="G9" s="2">
         <v>0.39583333333333331</v>
@@ -730,8 +773,11 @@
       <c r="H9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -748,7 +794,7 @@
         <v>90123456789</v>
       </c>
       <c r="F10" s="1">
-        <v>45216</v>
+        <v>45189</v>
       </c>
       <c r="G10" s="2">
         <v>0.54166666666666663</v>
@@ -756,8 +802,11 @@
       <c r="H10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -774,13 +823,16 @@
         <v>1234567890</v>
       </c>
       <c r="F11" s="1">
-        <v>45218</v>
+        <v>45190</v>
       </c>
       <c r="G11" s="2">
         <v>0.51041666666666663</v>
       </c>
       <c r="H11" t="s">
         <v>26</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
